--- a/artfynd/A 52711-2020.xlsx
+++ b/artfynd/A 52711-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67896981</v>
+        <v>67896947</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>535199.1001667086</v>
+        <v>535074.7109695221</v>
       </c>
       <c r="R2" t="n">
-        <v>6694054.43132937</v>
+        <v>6694112.567755733</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -800,14 +800,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>äldre tall</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # äldre tall</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -825,7 +820,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67896947</v>
+        <v>67897002</v>
       </c>
       <c r="B3" t="n">
         <v>90676</v>
@@ -867,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>535074.7109695221</v>
+        <v>535179.8831439412</v>
       </c>
       <c r="R3" t="n">
-        <v>6694112.567755733</v>
+        <v>6693992.92693847</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -945,9 +940,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>äldre tall</t>
+        </is>
+      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # äldre tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67897002</v>
+        <v>67909757</v>
       </c>
       <c r="B4" t="n">
         <v>90676</v>
@@ -1003,14 +1003,14 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Dammsjön, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535179.8831439412</v>
+        <v>535175.2102818792</v>
       </c>
       <c r="R4" t="n">
-        <v>6693992.92693847</v>
+        <v>6694015.134422472</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1065,55 +1065,25 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>åssýstem</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>äldre tall</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # äldre tall</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
+          <t>Stig-Åke Svenson, Lars-Erik Nilsson, Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67896972</v>
+        <v>88111373</v>
       </c>
       <c r="B5" t="n">
-        <v>90676</v>
+        <v>95525</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1122,40 +1092,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>221941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Backahedarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>535198.7936192898</v>
+        <v>534672.1552704792</v>
       </c>
       <c r="R5" t="n">
-        <v>6694086.076105063</v>
+        <v>6694306.988927337</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1182,7 +1154,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1192,7 +1164,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1210,55 +1182,25 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>åssýstem</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>äldre tall</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # äldre tall</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67909757</v>
+        <v>96114582</v>
       </c>
       <c r="B6" t="n">
-        <v>90676</v>
+        <v>88911</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1267,43 +1209,51 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5966</v>
+        <v>256703</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Dammsjön, Dlr</t>
+          <t>Mossbysjön nordväst om, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>535175.2102818792</v>
+        <v>535080.7781794027</v>
       </c>
       <c r="R6" t="n">
-        <v>6694015.134422472</v>
+        <v>6694099.769567783</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1327,22 +1277,27 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Solvänd sydsluttning.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1351,29 +1306,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson, Lars-Erik Nilsson, Janolof Hermansson</t>
+          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88111373</v>
+        <v>96114114</v>
       </c>
       <c r="B7" t="n">
-        <v>95525</v>
+        <v>88911</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1386,41 +1340,47 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221941</v>
+        <v>256703</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Backahedarna, Dlr</t>
+          <t>Mossbysjön norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>534672.1552704792</v>
+        <v>534869.8598267575</v>
       </c>
       <c r="R7" t="n">
-        <v>6694306.988927337</v>
+        <v>6694246.083701016</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1444,22 +1404,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>I södra vägkanten</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1468,29 +1433,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96114582</v>
+        <v>96114176</v>
       </c>
       <c r="B8" t="n">
-        <v>88911</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1503,26 +1467,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>256703</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1533,14 +1497,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Mossbysjön nordväst om, Dlr</t>
+          <t>Mossbysjön norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>535080.7781794027</v>
+        <v>534854.0026779885</v>
       </c>
       <c r="R8" t="n">
-        <v>6694099.769567783</v>
+        <v>6694246.920493717</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1572,7 +1536,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1582,12 +1546,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Solvänd sydsluttning.</t>
+          <t>Norr om vägen</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1607,17 +1571,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96114114</v>
+        <v>96114005</v>
       </c>
       <c r="B9" t="n">
-        <v>88911</v>
+        <v>90653</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1630,26 +1594,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>256703</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1664,13 +1628,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>534869.8598267575</v>
+        <v>534903.8176101729</v>
       </c>
       <c r="R9" t="n">
-        <v>6694246.083701016</v>
+        <v>6694268.66089655</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1699,7 +1663,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1709,12 +1673,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I södra vägkanten</t>
+          <t>Längs stig</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1741,7 +1705,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96114176</v>
+        <v>96113942</v>
       </c>
       <c r="B10" t="n">
         <v>90653</v>
@@ -1776,7 +1740,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1787,17 +1751,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Mossbysjön norr om, Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>534854.0026779885</v>
+        <v>535045.7182311348</v>
       </c>
       <c r="R10" t="n">
-        <v>6694246.920493717</v>
+        <v>6694191.405519556</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1826,7 +1790,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1836,12 +1800,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:24</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Norr om vägen</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1861,14 +1820,14 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96114005</v>
+        <v>96114022</v>
       </c>
       <c r="B11" t="n">
         <v>90653</v>
@@ -1914,17 +1873,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Mossbysjön norr om, Dlr</t>
+          <t>Mossbysjön , Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>534903.8176101729</v>
+        <v>534946.5784702633</v>
       </c>
       <c r="R11" t="n">
-        <v>6694268.66089655</v>
+        <v>6694199.845717766</v>
       </c>
       <c r="S11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1953,7 +1912,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1963,12 +1922,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Längs stig</t>
+          <t>9 färska fruktkroppar, 3 gamla</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1983,22 +1942,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96114751</v>
+        <v>96114283</v>
       </c>
       <c r="B12" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2007,30 +1966,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2041,14 +2000,14 @@
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Mossbysjön nordost om, Dlr</t>
+          <t>Mossbysjön norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>535195.8603659279</v>
+        <v>534875.2661311765</v>
       </c>
       <c r="R12" t="n">
-        <v>6694082.091738272</v>
+        <v>6694147.240012712</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2080,7 +2039,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2090,12 +2049,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:48</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>I vägkant</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2115,14 +2069,14 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96113942</v>
+        <v>96114270</v>
       </c>
       <c r="B13" t="n">
         <v>90653</v>
@@ -2157,7 +2111,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2168,14 +2122,14 @@
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Mossbysjön , Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>535045.7182311348</v>
+        <v>534869.3485911933</v>
       </c>
       <c r="R13" t="n">
-        <v>6694191.405519556</v>
+        <v>6694196.1368642</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2207,7 +2161,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2217,7 +2171,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2232,22 +2186,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96114022</v>
+        <v>96113678</v>
       </c>
       <c r="B14" t="n">
-        <v>90653</v>
+        <v>88902</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2256,30 +2210,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>5734</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2290,14 +2244,14 @@
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Mossbysjön , Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>534946.5784702633</v>
+        <v>535039.738394145</v>
       </c>
       <c r="R14" t="n">
-        <v>6694199.845717766</v>
+        <v>6694092.45068299</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2329,7 +2283,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2339,12 +2293,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>9 färska fruktkroppar, 3 gamla</t>
+          <t>Två äldre fruktkroppar</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2371,10 +2325,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96114283</v>
+        <v>96113791</v>
       </c>
       <c r="B15" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2383,48 +2337,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Mossbysjön norr om, Dlr</t>
+          <t>Mossbysjön , Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>534875.2661311765</v>
+        <v>535046.7006552572</v>
       </c>
       <c r="R15" t="n">
-        <v>6694147.240012712</v>
+        <v>6694089.550873141</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2456,7 +2401,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2466,7 +2411,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Två fruktkroppar</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2481,22 +2431,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96114270</v>
+        <v>96155765</v>
       </c>
       <c r="B16" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2505,51 +2455,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Mossbysjön , Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>534869.3485911933</v>
+        <v>535046.4908155386</v>
       </c>
       <c r="R16" t="n">
-        <v>6694196.1368642</v>
+        <v>6694111.306473528</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2578,7 +2521,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2588,7 +2531,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2597,28 +2540,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Stig-Åke Svenson, Uno Skog, malou lundin</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96113678</v>
+        <v>96113805</v>
       </c>
       <c r="B17" t="n">
-        <v>88902</v>
+        <v>88911</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2627,30 +2571,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5734</v>
+        <v>256703</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2665,10 +2609,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>535039.738394145</v>
+        <v>535018.1613666356</v>
       </c>
       <c r="R17" t="n">
-        <v>6694092.45068299</v>
+        <v>6694069.990441283</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2700,7 +2644,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2710,12 +2654,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Två äldre fruktkroppar</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2730,22 +2669,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96113791</v>
+        <v>67896981</v>
       </c>
       <c r="B18" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2754,42 +2693,43 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Mossbysjön , Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535046.7006552572</v>
+        <v>535199.1001667086</v>
       </c>
       <c r="R18" t="n">
-        <v>6694089.550873141</v>
+        <v>6694054.43132937</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2813,27 +2753,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:56</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Två fruktkroppar</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2842,25 +2777,56 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>åssýstem</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>äldre tall</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # äldre tall</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96155765</v>
+        <v>67896972</v>
       </c>
       <c r="B19" t="n">
         <v>90676</v>
@@ -2896,17 +2862,16 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>535046.4908155386</v>
+        <v>535198.7936192898</v>
       </c>
       <c r="R19" t="n">
-        <v>6694111.306473528</v>
+        <v>6694086.076105063</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2933,7 +2898,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2943,7 +2908,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2961,25 +2926,55 @@
       <c r="AG19" t="b">
         <v>0</v>
       </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>åssýstem</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>äldre tall</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # äldre tall</t>
+        </is>
+      </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson, Uno Skog, malou lundin</t>
+          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96113805</v>
+        <v>96114751</v>
       </c>
       <c r="B20" t="n">
-        <v>88911</v>
+        <v>90676</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2988,30 +2983,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>256703</v>
+        <v>5966</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3022,14 +3017,14 @@
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Mossbysjön nordost om, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>535018.1613666356</v>
+        <v>535195.8603659279</v>
       </c>
       <c r="R20" t="n">
-        <v>6694069.990441283</v>
+        <v>6694082.091738272</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3061,7 +3056,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3071,7 +3066,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>I vägkant</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 52711-2020.xlsx
+++ b/artfynd/A 52711-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67896947</v>
+        <v>67896981</v>
       </c>
       <c r="B2" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>535074.7109695221</v>
+        <v>535199.1001667086</v>
       </c>
       <c r="R2" t="n">
-        <v>6694112.567755733</v>
+        <v>6694054.43132937</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -800,9 +800,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>äldre tall</t>
+        </is>
+      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # äldre tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -820,7 +825,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67897002</v>
+        <v>67896947</v>
       </c>
       <c r="B3" t="n">
         <v>90676</v>
@@ -862,10 +867,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>535179.8831439412</v>
+        <v>535074.7109695221</v>
       </c>
       <c r="R3" t="n">
-        <v>6693992.92693847</v>
+        <v>6694112.567755733</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -940,14 +945,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>äldre tall</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # äldre tall</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67909757</v>
+        <v>67897002</v>
       </c>
       <c r="B4" t="n">
         <v>90676</v>
@@ -1003,14 +1003,14 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Dammsjön, Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>535175.2102818792</v>
+        <v>535179.8831439412</v>
       </c>
       <c r="R4" t="n">
-        <v>6694015.134422472</v>
+        <v>6693992.92693847</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1065,25 +1065,55 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>åssýstem</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>äldre tall</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # äldre tall</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson, Lars-Erik Nilsson, Janolof Hermansson</t>
+          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88111373</v>
+        <v>67896972</v>
       </c>
       <c r="B5" t="n">
-        <v>95525</v>
+        <v>90676</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1092,42 +1122,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221941</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Backahedarna, Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>534672.1552704792</v>
+        <v>535198.7936192898</v>
       </c>
       <c r="R5" t="n">
-        <v>6694306.988927337</v>
+        <v>6694086.076105063</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1154,7 +1182,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1164,7 +1192,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1182,25 +1210,55 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>åssýstem</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>äldre tall</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # äldre tall</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96114582</v>
+        <v>67909757</v>
       </c>
       <c r="B6" t="n">
-        <v>88911</v>
+        <v>90676</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1209,51 +1267,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>256703</v>
+        <v>5966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Mossbysjön nordväst om, Dlr</t>
+          <t>Dammsjön, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>535080.7781794027</v>
+        <v>535175.2102818792</v>
       </c>
       <c r="R6" t="n">
-        <v>6694099.769567783</v>
+        <v>6694015.134422472</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1277,27 +1327,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2017-10-08</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:41</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Solvänd sydsluttning.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1306,28 +1351,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
+          <t>Stig-Åke Svenson, Lars-Erik Nilsson, Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96114114</v>
+        <v>88111373</v>
       </c>
       <c r="B7" t="n">
-        <v>88911</v>
+        <v>95525</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1340,47 +1386,41 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>256703</v>
+        <v>221941</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Mossbysjön norr om, Dlr</t>
+          <t>Backahedarna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>534869.8598267575</v>
+        <v>534672.1552704792</v>
       </c>
       <c r="R7" t="n">
-        <v>6694246.083701016</v>
+        <v>6694306.988927337</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1404,27 +1444,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:23</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>I södra vägkanten</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1433,28 +1468,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96114176</v>
+        <v>96114582</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>88911</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1467,26 +1503,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>256703</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1497,14 +1533,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Mossbysjön norr om, Dlr</t>
+          <t>Mossbysjön nordväst om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>534854.0026779885</v>
+        <v>535080.7781794027</v>
       </c>
       <c r="R8" t="n">
-        <v>6694246.920493717</v>
+        <v>6694099.769567783</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1536,7 +1572,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1546,12 +1582,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Norr om vägen</t>
+          <t>Solvänd sydsluttning.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1571,17 +1607,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96114005</v>
+        <v>96114114</v>
       </c>
       <c r="B9" t="n">
-        <v>90653</v>
+        <v>88911</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1594,26 +1630,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>256703</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1628,13 +1664,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>534903.8176101729</v>
+        <v>534869.8598267575</v>
       </c>
       <c r="R9" t="n">
-        <v>6694268.66089655</v>
+        <v>6694246.083701016</v>
       </c>
       <c r="S9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1663,7 +1699,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1673,12 +1709,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Längs stig</t>
+          <t>I södra vägkanten</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1705,7 +1741,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96113942</v>
+        <v>96114176</v>
       </c>
       <c r="B10" t="n">
         <v>90653</v>
@@ -1740,7 +1776,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1751,17 +1787,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Mossbysjön norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>535045.7182311348</v>
+        <v>534854.0026779885</v>
       </c>
       <c r="R10" t="n">
-        <v>6694191.405519556</v>
+        <v>6694246.920493717</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1790,7 +1826,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1800,7 +1836,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:24</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Norr om vägen</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1820,14 +1861,14 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96114022</v>
+        <v>96114005</v>
       </c>
       <c r="B11" t="n">
         <v>90653</v>
@@ -1873,17 +1914,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Mossbysjön , Dlr</t>
+          <t>Mossbysjön norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>534946.5784702633</v>
+        <v>534903.8176101729</v>
       </c>
       <c r="R11" t="n">
-        <v>6694199.845717766</v>
+        <v>6694268.66089655</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1912,7 +1953,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1922,12 +1963,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>9 färska fruktkroppar, 3 gamla</t>
+          <t>Längs stig</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1942,22 +1983,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96114283</v>
+        <v>96114751</v>
       </c>
       <c r="B12" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1966,30 +2007,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2000,14 +2041,14 @@
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Mossbysjön norr om, Dlr</t>
+          <t>Mossbysjön nordost om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>534875.2661311765</v>
+        <v>535195.8603659279</v>
       </c>
       <c r="R12" t="n">
-        <v>6694147.240012712</v>
+        <v>6694082.091738272</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2039,7 +2080,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2049,7 +2090,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>I vägkant</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2069,14 +2115,14 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96114270</v>
+        <v>96113942</v>
       </c>
       <c r="B13" t="n">
         <v>90653</v>
@@ -2111,7 +2157,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2122,14 +2168,14 @@
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Mossbysjön , Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>534869.3485911933</v>
+        <v>535045.7182311348</v>
       </c>
       <c r="R13" t="n">
-        <v>6694196.1368642</v>
+        <v>6694191.405519556</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2161,7 +2207,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2171,7 +2217,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2186,22 +2232,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96113678</v>
+        <v>96114022</v>
       </c>
       <c r="B14" t="n">
-        <v>88902</v>
+        <v>90653</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2210,30 +2256,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5734</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2244,14 +2290,14 @@
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Mossbysjön , Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>535039.738394145</v>
+        <v>534946.5784702633</v>
       </c>
       <c r="R14" t="n">
-        <v>6694092.45068299</v>
+        <v>6694199.845717766</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2283,7 +2329,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2293,12 +2339,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Två äldre fruktkroppar</t>
+          <t>9 färska fruktkroppar, 3 gamla</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2325,10 +2371,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96113791</v>
+        <v>96114283</v>
       </c>
       <c r="B15" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2337,39 +2383,48 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Mossbysjön , Dlr</t>
+          <t>Mossbysjön norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>535046.7006552572</v>
+        <v>534875.2661311765</v>
       </c>
       <c r="R15" t="n">
-        <v>6694089.550873141</v>
+        <v>6694147.240012712</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2401,7 +2456,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2411,12 +2466,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:56</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Två fruktkroppar</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2431,22 +2481,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96155765</v>
+        <v>96114270</v>
       </c>
       <c r="B16" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2455,44 +2505,51 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Mossbysjön , Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>535046.4908155386</v>
+        <v>534869.3485911933</v>
       </c>
       <c r="R16" t="n">
-        <v>6694111.306473528</v>
+        <v>6694196.1368642</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2521,7 +2578,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2531,7 +2588,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2540,29 +2597,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson, Uno Skog, malou lundin</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96113805</v>
+        <v>96113678</v>
       </c>
       <c r="B17" t="n">
-        <v>88911</v>
+        <v>88902</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2571,30 +2627,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>256703</v>
+        <v>5734</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2609,10 +2665,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>535018.1613666356</v>
+        <v>535039.738394145</v>
       </c>
       <c r="R17" t="n">
-        <v>6694069.990441283</v>
+        <v>6694092.45068299</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2644,7 +2700,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2654,7 +2710,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Två äldre fruktkroppar</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2669,22 +2730,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Uno Skog, Stig-Åke Svenson, malou lundin</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67896981</v>
+        <v>96113791</v>
       </c>
       <c r="B18" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2693,43 +2754,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Mossbysjön, Dlr</t>
+          <t>Mossbysjön , Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>535199.1001667086</v>
+        <v>535046.7006552572</v>
       </c>
       <c r="R18" t="n">
-        <v>6694054.43132937</v>
+        <v>6694089.550873141</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2753,22 +2813,27 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Två fruktkroppar</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2777,56 +2842,25 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>åssýstem</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>äldre tall</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # äldre tall</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67896972</v>
+        <v>96155765</v>
       </c>
       <c r="B19" t="n">
         <v>90676</v>
@@ -2862,16 +2896,17 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>535198.7936192898</v>
+        <v>535046.4908155386</v>
       </c>
       <c r="R19" t="n">
-        <v>6694086.076105063</v>
+        <v>6694111.306473528</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2898,7 +2933,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2908,7 +2943,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2017-10-08</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2926,55 +2961,25 @@
       <c r="AG19" t="b">
         <v>0</v>
       </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>åssýstem</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>äldre tall</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # äldre tall</t>
-        </is>
-      </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Stig-Åke Svenson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Lars-Erik Nilsson, Stig-Åke Svenson</t>
+          <t>Stig-Åke Svenson, Uno Skog, malou lundin</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96114751</v>
+        <v>96113805</v>
       </c>
       <c r="B20" t="n">
-        <v>90676</v>
+        <v>88911</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2983,30 +2988,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5966</v>
+        <v>256703</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3017,14 +3022,14 @@
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mossbysjön nordost om, Dlr</t>
+          <t>Mossbysjön, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>535195.8603659279</v>
+        <v>535018.1613666356</v>
       </c>
       <c r="R20" t="n">
-        <v>6694082.091738272</v>
+        <v>6694069.990441283</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3056,7 +3061,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3066,12 +3071,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:48</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>I vägkant</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
